--- a/data_cosmochemistry/videos_cosmochemistry.xlsx
+++ b/data_cosmochemistry/videos_cosmochemistry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/courses/data_cosmochemistry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E6E99C9-5DE0-6549-ACB6-4AF6913C871F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BE6ED8-301F-BD42-83D9-60061220B761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5570" uniqueCount="3444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5570" uniqueCount="3428">
   <si>
     <t>Keywords</t>
   </si>
@@ -12782,58 +12782,10 @@
     <t>https://youtu.be/mSzXcgaA_M4</t>
   </si>
   <si>
-    <t>https://youtu.be/yQSUpEBvyvM</t>
-  </si>
-  <si>
-    <t>https://youtu.be/QwJ_CEHFCVw</t>
-  </si>
-  <si>
-    <t>https://youtu.be/DHyQZ5WYhpU</t>
-  </si>
-  <si>
-    <t>https://youtu.be/wspG_42RF_s</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Gz7ofMyanCs</t>
-  </si>
-  <si>
-    <t>https://youtu.be/df3hxPf_xSw</t>
-  </si>
-  <si>
-    <t>https://youtu.be/sa9jqLArARI</t>
-  </si>
-  <si>
-    <t>https://youtu.be/-3817WlqHKU</t>
-  </si>
-  <si>
-    <t>https://youtu.be/5tR07xm6Ktc</t>
-  </si>
-  <si>
-    <t>https://youtu.be/MDlrmGt6r64</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ZNsgNd3B9Pg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/q8I3o3Ep3q4</t>
-  </si>
-  <si>
-    <t>https://youtu.be/UhJLUD3_4Jg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/uNUNRzWHkSI</t>
-  </si>
-  <si>
     <t>https://youtu.be/L3ZBepO0pvs</t>
   </si>
   <si>
     <t>https://youtu.be/W288fWeVPW0</t>
-  </si>
-  <si>
-    <t>https://youtu.be/hHrOWRpiJQo</t>
-  </si>
-  <si>
-    <t>https://youtu.be/RVbg7NP6ezQ</t>
   </si>
   <si>
     <t>vim</t>
@@ -14051,9 +14003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U234" sqref="U234"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U89" sqref="U89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19777,7 +19729,7 @@
         <v>439601501</v>
       </c>
       <c r="R78" s="15" t="s">
-        <v>3403</v>
+        <v>3395</v>
       </c>
       <c r="S78" s="16">
         <v>6.3888888888888884E-2</v>
@@ -19786,7 +19738,7 @@
         <v>439600880</v>
       </c>
       <c r="U78" s="15" t="s">
-        <v>3404</v>
+        <v>3395</v>
       </c>
       <c r="V78" s="16">
         <v>8.4722222222222213E-2</v>
@@ -19848,7 +19800,7 @@
         <v>439662284</v>
       </c>
       <c r="R79" s="15" t="s">
-        <v>3407</v>
+        <v>3393</v>
       </c>
       <c r="S79" s="16">
         <v>9.0972222222222218E-2</v>
@@ -19857,7 +19809,7 @@
         <v>439600301</v>
       </c>
       <c r="U79" s="15" t="s">
-        <v>3408</v>
+        <v>3394</v>
       </c>
       <c r="V79" s="16">
         <v>7.7777777777777779E-2</v>
@@ -19919,7 +19871,7 @@
         <v>439588111</v>
       </c>
       <c r="R80" s="15" t="s">
-        <v>3401</v>
+        <v>3395</v>
       </c>
       <c r="S80" s="16">
         <v>0.28263888888888888</v>
@@ -19928,7 +19880,7 @@
         <v>439589783</v>
       </c>
       <c r="U80" s="15" t="s">
-        <v>3402</v>
+        <v>3395</v>
       </c>
       <c r="V80" s="16">
         <v>0.23750000000000002</v>
@@ -19990,7 +19942,7 @@
         <v>439591192</v>
       </c>
       <c r="R81" s="15" t="s">
-        <v>3406</v>
+        <v>3395</v>
       </c>
       <c r="S81" s="16">
         <v>9.1666666666666674E-2</v>
@@ -19999,7 +19951,7 @@
         <v>439590387</v>
       </c>
       <c r="U81" s="15" t="s">
-        <v>3405</v>
+        <v>3395</v>
       </c>
       <c r="V81" s="16">
         <v>9.1666666666666674E-2</v>
@@ -20061,7 +20013,7 @@
         <v>439610721</v>
       </c>
       <c r="R82" s="15" t="s">
-        <v>3409</v>
+        <v>3395</v>
       </c>
       <c r="S82" s="16">
         <v>9.9999999999999992E-2</v>
@@ -20070,7 +20022,7 @@
         <v>439591965</v>
       </c>
       <c r="U82" s="15" t="s">
-        <v>3410</v>
+        <v>3395</v>
       </c>
       <c r="V82" s="16">
         <v>0.11388888888888889</v>
@@ -20132,7 +20084,7 @@
         <v>439593334</v>
       </c>
       <c r="R83" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S83" s="16">
         <v>7.9861111111111105E-2</v>
@@ -20141,7 +20093,7 @@
         <v>439592645</v>
       </c>
       <c r="U83" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="V83" s="16">
         <v>7.2222222222222229E-2</v>
@@ -20203,7 +20155,7 @@
         <v>439599900</v>
       </c>
       <c r="R84" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S84" s="16">
         <v>0.20277777777777781</v>
@@ -20212,7 +20164,7 @@
         <v>439598386</v>
       </c>
       <c r="U84" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="V84" s="16">
         <v>0.20069444444444443</v>
@@ -20274,7 +20226,7 @@
         <v>439607945</v>
       </c>
       <c r="R85" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S85" s="16">
         <v>0.32291666666666669</v>
@@ -20283,7 +20235,7 @@
         <v>439610114</v>
       </c>
       <c r="U85" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="V85" s="16">
         <v>0.28333333333333333</v>
@@ -20416,7 +20368,7 @@
         <v>439611810</v>
       </c>
       <c r="R87" s="15" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="S87" s="16">
         <v>0.13055555555555556</v>
@@ -20425,7 +20377,7 @@
         <v>439613173</v>
       </c>
       <c r="U87" s="15" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="V87" s="16">
         <v>0.13541666666666666</v>
@@ -20496,7 +20448,7 @@
         <v>439614411</v>
       </c>
       <c r="U88" s="15" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="V88" s="16">
         <v>0.24861111111111112</v>
@@ -20558,7 +20510,7 @@
         <v>439663592</v>
       </c>
       <c r="R89" s="15" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
       <c r="S89" s="16">
         <v>0.17777777777777778</v>
@@ -20567,7 +20519,7 @@
         <v>439664286</v>
       </c>
       <c r="U89" s="15" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="V89" s="16">
         <v>0.21041666666666667</v>
@@ -20629,7 +20581,7 @@
         <v>439597009</v>
       </c>
       <c r="R90" s="15" t="s">
-        <v>3399</v>
+        <v>3395</v>
       </c>
       <c r="S90" s="16">
         <v>0.12916666666666668</v>
@@ -20637,8 +20589,8 @@
       <c r="T90" s="15">
         <v>439595834</v>
       </c>
-      <c r="U90" t="s">
-        <v>3400</v>
+      <c r="U90" s="15" t="s">
+        <v>3395</v>
       </c>
       <c r="V90" s="16">
         <v>0.17986111111111111</v>
@@ -21020,7 +20972,7 @@
         <v>330023562</v>
       </c>
       <c r="R110" t="s">
-        <v>3412</v>
+        <v>3396</v>
       </c>
       <c r="S110" s="20">
         <v>0.30277777777777776</v>
@@ -21029,7 +20981,7 @@
         <v>330024988</v>
       </c>
       <c r="U110" t="s">
-        <v>3414</v>
+        <v>3398</v>
       </c>
       <c r="V110" s="20">
         <v>0.34166666666666662</v>
@@ -21094,7 +21046,7 @@
         <v>327328144</v>
       </c>
       <c r="R111" t="s">
-        <v>3417</v>
+        <v>3401</v>
       </c>
       <c r="S111" s="20">
         <v>0.32013888888888892</v>
@@ -21103,7 +21055,7 @@
         <v>327329545</v>
       </c>
       <c r="U111" t="s">
-        <v>3416</v>
+        <v>3400</v>
       </c>
       <c r="V111" s="20">
         <v>0.31319444444444444</v>
@@ -21168,7 +21120,7 @@
         <v>327307600</v>
       </c>
       <c r="R112" t="s">
-        <v>3413</v>
+        <v>3397</v>
       </c>
       <c r="S112" s="20">
         <v>0.17083333333333331</v>
@@ -21177,7 +21129,7 @@
         <v>327306166</v>
       </c>
       <c r="U112" t="s">
-        <v>3415</v>
+        <v>3399</v>
       </c>
       <c r="V112" s="20">
         <v>0.18263888888888891</v>
@@ -21242,7 +21194,7 @@
         <v>327309202</v>
       </c>
       <c r="R113" t="s">
-        <v>3418</v>
+        <v>3402</v>
       </c>
       <c r="S113" s="20">
         <v>0.18402777777777779</v>
@@ -21251,7 +21203,7 @@
         <v>327310063</v>
       </c>
       <c r="U113" t="s">
-        <v>3419</v>
+        <v>3403</v>
       </c>
       <c r="V113" s="20">
         <v>0.19375000000000001</v>
@@ -21331,7 +21283,7 @@
         <v>439594330</v>
       </c>
       <c r="R115" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S115" s="70">
         <v>7.2916666666666671E-2</v>
@@ -21340,7 +21292,7 @@
         <v>439593749</v>
       </c>
       <c r="U115" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="V115" s="20">
         <v>5.9722222222222225E-2</v>
@@ -21399,7 +21351,7 @@
         <v>439583805</v>
       </c>
       <c r="R116" s="15" t="s">
-        <v>3420</v>
+        <v>3404</v>
       </c>
       <c r="S116" s="20">
         <v>0.24097222222222223</v>
@@ -21408,7 +21360,7 @@
         <v>439583012</v>
       </c>
       <c r="U116" s="15" t="s">
-        <v>3421</v>
+        <v>3405</v>
       </c>
       <c r="V116" s="20">
         <v>0.22638888888888889</v>
@@ -22509,7 +22461,7 @@
         <v>316495288</v>
       </c>
       <c r="U158" t="s">
-        <v>3422</v>
+        <v>3406</v>
       </c>
       <c r="V158" s="20">
         <v>0.28958333333333336</v>
@@ -22574,7 +22526,7 @@
         <v>320755027</v>
       </c>
       <c r="R159" s="15" t="s">
-        <v>3423</v>
+        <v>3407</v>
       </c>
       <c r="S159" s="16">
         <v>0.15833333333333333</v>
@@ -22583,7 +22535,7 @@
         <v>320755758</v>
       </c>
       <c r="U159" s="15" t="s">
-        <v>3424</v>
+        <v>3408</v>
       </c>
       <c r="V159" s="16">
         <v>0.16597222222222222</v>
@@ -22649,7 +22601,7 @@
         <v>324693330</v>
       </c>
       <c r="R160" t="s">
-        <v>3426</v>
+        <v>3410</v>
       </c>
       <c r="S160" s="20">
         <v>9.7222222222222224E-2</v>
@@ -22658,7 +22610,7 @@
         <v>324694113</v>
       </c>
       <c r="U160" s="15" t="s">
-        <v>3430</v>
+        <v>3414</v>
       </c>
       <c r="V160" s="16">
         <v>0.1076388888888889</v>
@@ -22724,7 +22676,7 @@
         <v>324693017</v>
       </c>
       <c r="R161" t="s">
-        <v>3427</v>
+        <v>3411</v>
       </c>
       <c r="S161" s="20">
         <v>4.8611111111111112E-2</v>
@@ -22733,7 +22685,7 @@
         <v>324693149</v>
       </c>
       <c r="U161" s="15" t="s">
-        <v>3427</v>
+        <v>3411</v>
       </c>
       <c r="V161" s="16">
         <v>5.347222222222222E-2</v>
@@ -22799,7 +22751,7 @@
         <v>325891891</v>
       </c>
       <c r="R162" t="s">
-        <v>3425</v>
+        <v>3409</v>
       </c>
       <c r="S162" s="20">
         <v>0.18263888888888891</v>
@@ -22808,7 +22760,7 @@
         <v>325893180</v>
       </c>
       <c r="U162" s="15" t="s">
-        <v>3429</v>
+        <v>3413</v>
       </c>
       <c r="V162" s="16">
         <v>0.19166666666666665</v>
@@ -22874,7 +22826,7 @@
         <v>325896104</v>
       </c>
       <c r="R163" t="s">
-        <v>3428</v>
+        <v>3412</v>
       </c>
       <c r="S163" s="20">
         <v>0.3263888888888889</v>
@@ -22883,7 +22835,7 @@
         <v>325894607</v>
       </c>
       <c r="U163" s="15" t="s">
-        <v>3431</v>
+        <v>3415</v>
       </c>
       <c r="V163" s="16">
         <v>0.31180555555555556</v>
@@ -22946,13 +22898,13 @@
         <v>400271324</v>
       </c>
       <c r="R164" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S164" s="20">
         <v>0.25069444444444444</v>
       </c>
       <c r="U164" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="W164" s="100" t="s">
         <v>32</v>
@@ -23011,13 +22963,13 @@
         <v>400270028</v>
       </c>
       <c r="R165" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S165" s="20">
         <v>0.2388888888888889</v>
       </c>
       <c r="U165" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="W165" s="100" t="s">
         <v>32</v>
@@ -23076,13 +23028,13 @@
         <v>400270031</v>
       </c>
       <c r="R166" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S166" s="20">
         <v>0.21458333333333335</v>
       </c>
       <c r="U166" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="W166" s="100" t="s">
         <v>32</v>
@@ -23141,13 +23093,13 @@
         <v>400272946</v>
       </c>
       <c r="R167" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S167" s="20">
         <v>0.52222222222222225</v>
       </c>
       <c r="U167" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="W167" s="100" t="s">
         <v>32</v>
@@ -23206,13 +23158,13 @@
         <v>400270018</v>
       </c>
       <c r="R168" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S168" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="U168" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="W168" s="100" t="s">
         <v>32</v>
@@ -23271,13 +23223,13 @@
         <v>400274568</v>
       </c>
       <c r="R169" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S169" s="20">
         <v>0.30902777777777779</v>
       </c>
       <c r="U169" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="W169" s="100" t="s">
         <v>32</v>
@@ -23336,13 +23288,13 @@
         <v>400274839</v>
       </c>
       <c r="R170" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S170" s="20">
         <v>0.33749999999999997</v>
       </c>
       <c r="U170" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="W170" s="100" t="s">
         <v>32</v>
@@ -23401,13 +23353,13 @@
         <v>400272934</v>
       </c>
       <c r="R171" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S171" s="20">
         <v>0.20277777777777781</v>
       </c>
       <c r="U171" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="W171" s="100" t="s">
         <v>32</v>
@@ -23466,13 +23418,13 @@
         <v>400272948</v>
       </c>
       <c r="R172" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S172" s="20">
         <v>0.33263888888888887</v>
       </c>
       <c r="U172" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="W172" s="100" t="s">
         <v>32</v>
@@ -23531,13 +23483,13 @@
         <v>400275566</v>
       </c>
       <c r="R173" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S173" s="20">
         <v>0.51388888888888895</v>
       </c>
       <c r="U173" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="W173" s="100" t="s">
         <v>32</v>
@@ -23596,13 +23548,13 @@
         <v>400274354</v>
       </c>
       <c r="R174" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="S174" s="20">
         <v>0.23819444444444446</v>
       </c>
       <c r="U174" s="15" t="s">
-        <v>3411</v>
+        <v>3395</v>
       </c>
       <c r="W174" s="100" t="s">
         <v>32</v>
@@ -24885,7 +24837,7 @@
         <v>316494128</v>
       </c>
       <c r="R229" s="77" t="s">
-        <v>3432</v>
+        <v>3416</v>
       </c>
       <c r="S229" s="124">
         <v>0.13194444444444445</v>
@@ -24894,7 +24846,7 @@
         <v>316493899</v>
       </c>
       <c r="U229" s="124" t="s">
-        <v>3433</v>
+        <v>3417</v>
       </c>
       <c r="V229" s="124">
         <v>0.14791666666666667</v>
@@ -24953,7 +24905,7 @@
         <v>316493220</v>
       </c>
       <c r="R230" s="124" t="s">
-        <v>3434</v>
+        <v>3418</v>
       </c>
       <c r="S230" s="124">
         <v>0.17430555555555557</v>
@@ -24962,7 +24914,7 @@
         <v>316492853</v>
       </c>
       <c r="U230" s="124" t="s">
-        <v>3435</v>
+        <v>3419</v>
       </c>
       <c r="V230" s="124">
         <v>0.19305555555555554</v>
@@ -25021,7 +24973,7 @@
         <v>319164522</v>
       </c>
       <c r="R231" s="124" t="s">
-        <v>3436</v>
+        <v>3420</v>
       </c>
       <c r="S231" s="124">
         <v>0.45</v>
@@ -25030,7 +24982,7 @@
         <v>319017965</v>
       </c>
       <c r="U231" s="124" t="s">
-        <v>3437</v>
+        <v>3421</v>
       </c>
       <c r="V231" s="124">
         <v>0.46597222222222223</v>
@@ -25091,7 +25043,7 @@
         <v>319041281</v>
       </c>
       <c r="R232" s="124" t="s">
-        <v>3438</v>
+        <v>3422</v>
       </c>
       <c r="S232" s="124">
         <v>0.1388888888888889</v>
@@ -25100,7 +25052,7 @@
         <v>319040677</v>
       </c>
       <c r="U232" s="124" t="s">
-        <v>3439</v>
+        <v>3423</v>
       </c>
       <c r="V232" s="124">
         <v>0.10972222222222222</v>
@@ -25165,7 +25117,7 @@
         <v>327292226</v>
       </c>
       <c r="R233" s="124" t="s">
-        <v>3440</v>
+        <v>3424</v>
       </c>
       <c r="S233" s="124">
         <v>0.34930555555555554</v>
@@ -25174,7 +25126,7 @@
         <v>327293503</v>
       </c>
       <c r="U233" s="124" t="s">
-        <v>3441</v>
+        <v>3425</v>
       </c>
       <c r="V233" s="124">
         <v>0.30972222222222223</v>
@@ -25239,7 +25191,7 @@
         <v>327294966</v>
       </c>
       <c r="R234" s="124" t="s">
-        <v>3442</v>
+        <v>3426</v>
       </c>
       <c r="S234" s="124">
         <v>0.41041666666666665</v>
@@ -25248,7 +25200,7 @@
         <v>327296461</v>
       </c>
       <c r="U234" s="124" t="s">
-        <v>3443</v>
+        <v>3427</v>
       </c>
       <c r="V234" s="124">
         <v>0.46666666666666662</v>
